--- a/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_36.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_36.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI EM_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI EM_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI EM_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI EM_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI EM_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI EM_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI EM_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI EM_두바이유가</t>
   </si>
   <si>
-    <t>MSCI EM_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI EM_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI EM_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI EM_미국 REER</t>
   </si>
   <si>
-    <t>MSCI EM_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI EM_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI EM_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI EM_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI EM_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI EM_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI EM_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI EM_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI EM_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI EM_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI EM_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 REER</t>
   </si>
   <si>
-    <t>MSCI EM_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI EM_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI EM_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI EM_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,915 +1893,765 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -2894,79 +2669,79 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -2984,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2999,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -3041,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -3056,37 +2831,37 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
@@ -3101,58 +2876,58 @@
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
         <v>2</v>
       </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM3" t="n">
         <v>2</v>
       </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -3161,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="n">
         <v>3</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,61 +2963,61 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL3" t="n">
         <v>3</v>
       </c>
       <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3254,7 +3029,7 @@
         <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -3263,49 +3038,49 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
         <v>2</v>
       </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
         <v>2</v>
@@ -3317,55 +3092,55 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>0</v>
-      </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
@@ -3377,7 +3152,7 @@
         <v>3</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -3386,133 +3161,133 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
         <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
         <v>3</v>
@@ -3521,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3533,22 +3308,22 @@
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
       </c>
       <c r="HP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HQ3" t="n">
         <v>2</v>
       </c>
       <c r="HR3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HS3" t="n">
         <v>0</v>
@@ -3557,44 +3332,44 @@
         <v>3</v>
       </c>
       <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG3" t="n">
         <v>2</v>
       </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
       <c r="IH3" t="n">
         <v>0</v>
       </c>
@@ -3605,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="IK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
@@ -3620,909 +3395,759 @@
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9012104104929806</v>
+        <v>-0.9332551626327478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6742081041041357</v>
+        <v>0.9102674923564923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8892496393288738</v>
+        <v>0.8559493098504065</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8463999454435186</v>
+        <v>0.835966420661104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6291245722971192</v>
+        <v>0.640680541877841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4080215182452559</v>
+        <v>0.2872749554716559</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9075103355626822</v>
+        <v>0.9242296318305973</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8417669633034213</v>
+        <v>0.9205956819267553</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8269458870325543</v>
+        <v>0.4740694753989252</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8296123681306899</v>
+        <v>0.4839540379854253</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7517366103980306</v>
+        <v>-0.6607622850079818</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7821124605262949</v>
+        <v>0.9451834416453813</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7319378695918944</v>
+        <v>-0.8393382875553281</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8900067663048121</v>
+        <v>0.8687478958709524</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3057484941016016</v>
+        <v>0.7944081845613616</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5074389846063596</v>
+        <v>0.8423018852120321</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.6726706326727306</v>
+        <v>0.6682180443422727</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7576387592833628</v>
+        <v>0.6652178780553205</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8025995170863507</v>
+        <v>-0.6071395962410601</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8488292503029699</v>
+        <v>0.8740727935144897</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7447186466423077</v>
+        <v>0.4535866309364127</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5619085308528484</v>
+        <v>0.9526283203157572</v>
       </c>
       <c r="X4" t="n">
-        <v>0.457315231818717</v>
+        <v>0.8911648220867991</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5856901508246334</v>
+        <v>-0.04316335926066259</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7039183795940521</v>
+        <v>0.8573616271601526</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8694237680108109</v>
+        <v>0.5851559867530651</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4555426960916951</v>
+        <v>0.9208185847442532</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9050706809732704</v>
+        <v>0.7069070897089214</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8349817516127629</v>
+        <v>0.9328826929340631</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1527023346899893</v>
+        <v>0.6819489333578082</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8218426895758136</v>
+        <v>0.5011328637476654</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5575715097022896</v>
+        <v>0.5513205256541447</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8521939924070807</v>
+        <v>-0.3890907507544243</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.672102941987983</v>
+        <v>0.9681399993503998</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8983764087908124</v>
+        <v>-0.1510776338210056</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6600510523459969</v>
+        <v>0.9057672145149412</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3846273866269959</v>
+        <v>-0.1290747766745571</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5965908057198788</v>
+        <v>-0.3532827189995038</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2892885912063741</v>
+        <v>-0.8427323919190463</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9436727361017838</v>
+        <v>0.952322668454347</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.2984285429432455</v>
+        <v>0.1181676832138454</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9068326055971867</v>
+        <v>-0.8214624639212803</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.256184397259954</v>
+        <v>-0.7041779900508831</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.3052500438532371</v>
+        <v>0.993570892558069</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.8186911468678908</v>
+        <v>0.9832614074242662</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9429600460723325</v>
+        <v>0.9692649483879651</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1398544074830253</v>
+        <v>0.9803059614708733</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.6578668575258766</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6482329668372231</v>
+        <v>0.9965351165594512</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9940552268187582</v>
+        <v>0.976743732150523</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9733203810162179</v>
+        <v>0.961150725060821</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9556266455340557</v>
+        <v>0.9644927956817003</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9786544608031801</v>
+        <v>0.8616505116954585</v>
       </c>
       <c r="BC4" t="n">
-        <v>1</v>
+        <v>0.8367485624502639</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9939235384873197</v>
+        <v>0.736676024588156</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9638539904853177</v>
+        <v>-0.01659078944450485</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.944996463590543</v>
+        <v>0.8967034194582759</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9502437707258017</v>
+        <v>0.2798898049982164</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8249624053755734</v>
+        <v>0.8714113770372015</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8624938502527811</v>
+        <v>0.09902845682552387</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6674711563942175</v>
+        <v>0.8601000555801961</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1986525692971589</v>
+        <v>0.8385670473023796</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1824613899870701</v>
+        <v>0.5214765554557532</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8517627694404263</v>
+        <v>-0.4432403678888886</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.780788732751208</v>
+        <v>0.9626028034677167</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.7742759257203824</v>
+        <v>0.839727381790679</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2047720368888909</v>
+        <v>0.9526598836196901</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.840696224675843</v>
+        <v>0.6305330122679973</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1610345783478508</v>
+        <v>0.9446376608637751</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8563876324906642</v>
+        <v>0.8992285595799052</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8023699523278131</v>
+        <v>0.2701870744428244</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5661275652694562</v>
+        <v>0.8145776836535925</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.2972033209907693</v>
+        <v>0.7377761130283723</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9144110984770538</v>
+        <v>0.7836053182242556</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8587196644598062</v>
+        <v>-0.7795324654300424</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9244940047205337</v>
+        <v>-0.1269535902687219</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7460137223697377</v>
+        <v>0.449358737607519</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9433909605581852</v>
+        <v>0.8553860596267938</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8953039177387262</v>
+        <v>0.8039238738069103</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.4482599760155938</v>
+        <v>0.6809565782018451</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8416766304844376</v>
+        <v>0.206071722357754</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.6934201505284573</v>
+        <v>0.7252525087064544</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7454523452428574</v>
+        <v>0.8292468969120809</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8544379935959127</v>
+        <v>-0.532837124185727</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.3187140622358517</v>
+        <v>0.801035712849703</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.2778513612219909</v>
+        <v>0.09642801010349601</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8134504425057545</v>
+        <v>-0.1947698756876869</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.7954695117623387</v>
+        <v>-0.03831810924573397</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6092589142151816</v>
+        <v>0.120458676726058</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3531684105170834</v>
+        <v>0.2991426336987058</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7948961914898971</v>
+        <v>0.9389001100332529</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7870906049638126</v>
+        <v>-0.5962379540099271</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6168668742243978</v>
+        <v>0.7112084746188633</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8003244854976129</v>
+        <v>0.9308066774663384</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.3283580328140172</v>
+        <v>-0.5529549842871474</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1606004155515919</v>
+        <v>0.9312162011181422</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.2663870591046965</v>
+        <v>0.6642195195626168</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2351613783137715</v>
+        <v>0.88305267487191</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4631583086099487</v>
+        <v>0.9019616141803916</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.7598271738965094</v>
+        <v>0.8795666900753959</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.2363094553567926</v>
+        <v>0.8791984811310527</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.5933159525173726</v>
+        <v>-0.7112263622654285</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.7815973930441877</v>
+        <v>0.8094229495211119</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5090178152313026</v>
+        <v>0.376481961089668</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9233232842039721</v>
+        <v>0.9085535047832962</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5987254588349146</v>
+        <v>-0.6343290379979029</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.767821872516917</v>
+        <v>0.6949910226694714</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8442630099051927</v>
+        <v>0.7544812725769039</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8757193700990505</v>
+        <v>0.1362199674357315</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.7899229193861079</v>
+        <v>0.8431007510741506</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6886539996862554</v>
+        <v>-0.2759997604859198</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.6268410015848757</v>
+        <v>0.8041305131182581</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3352831272630801</v>
+        <v>-0.4867136758174319</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.8767138518232265</v>
+        <v>0.5300280641710787</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.5351673785476214</v>
+        <v>0.2662002443673586</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.6741193961848624</v>
+        <v>-0.755917757224016</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.6971040568907295</v>
+        <v>0.8086200417727568</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1355169691745861</v>
+        <v>0.3955705843147778</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8399081525103801</v>
+        <v>-0.4090913927460154</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8461964682326942</v>
+        <v>0.9389001100332529</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.7717726528326246</v>
+        <v>0.9281754396144261</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2049228446650151</v>
+        <v>0.8598402944224556</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.6217456666956453</v>
+        <v>0.706562493885455</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6308602986172289</v>
+        <v>0.862086506271373</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3966039007307844</v>
+        <v>0.3651693245652674</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3381177411910222</v>
+        <v>0.8162142380726246</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.702511149149575</v>
+        <v>-0.8944943425153731</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.6360568170116981</v>
+        <v>0.9521824905708208</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.6752442107114969</v>
+        <v>0.7568375859824604</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3056927197245953</v>
+        <v>0.960441971792298</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5258020221986099</v>
+        <v>0.9288825195027035</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.6832625020385508</v>
+        <v>0.6184609247433002</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.7598271738965094</v>
+        <v>-0.7582974445644557</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.8666910828048673</v>
+        <v>0.4430420002754124</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8201110847587477</v>
+        <v>-0.1691496164164809</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6343660573439835</v>
+        <v>0.7578332175354995</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8039188615274715</v>
+        <v>0.9346349061299586</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2652063584700755</v>
+        <v>-0.2108634948754655</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8620633085667987</v>
+        <v>0.8858533546449801</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.8928584939199533</v>
+        <v>0.9251527805175989</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.916775545395045</v>
+        <v>0.8965491537677261</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6468825600066749</v>
+        <v>0.8610632969694542</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9225222891507827</v>
+        <v>0.8886169174013309</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9075451677494353</v>
+        <v>-0.9448739817041263</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5922721975115064</v>
+        <v>0.9061551329702019</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7193071534831907</v>
+        <v>0.2618779536079189</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.1930392363037242</v>
+        <v>0.6200264542032354</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.199716549222176</v>
+        <v>-0.876776950662114</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7686197422861183</v>
+        <v>-0.8806257059021809</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9447337362340663</v>
+        <v>-0.926709865870681</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.2425515120469222</v>
+        <v>0.7294846317343938</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8107090396505908</v>
+        <v>0.8143232508762933</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.8642371775907161</v>
+        <v>0.7842237879940569</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8277752362098545</v>
+        <v>0.6785327577675951</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.7268454394064712</v>
+        <v>0.3813395904253007</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8558364179053642</v>
+        <v>-0.2090595495324676</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9032005229681056</v>
+        <v>-0.2985868113607441</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.8497748672034897</v>
+        <v>0.4839540379854253</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2487747516375589</v>
+        <v>0.9058606777365998</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.5140019211341803</v>
+        <v>0.2976725614775446</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8640804106300787</v>
+        <v>0.5191185018444054</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8751531456506451</v>
+        <v>-0.1575576062738726</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8967544494451636</v>
+        <v>0.8387399691366252</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7082796055937052</v>
+        <v>-0.5671943388407158</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7176111106826896</v>
+        <v>-0.3039345238425877</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7036580062465884</v>
+        <v>-0.5670000103690307</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.8908792452172816</v>
+        <v>-0.1176351243530951</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6755936921316728</v>
+        <v>0.9133196385945671</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.358417467123879</v>
+        <v>0.5415878587953183</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2271052581716057</v>
+        <v>-0.2797696315679739</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.2989456501443769</v>
+        <v>-0.7996271766864343</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5074389846063596</v>
+        <v>0.8456098371137296</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8302148739022537</v>
+        <v>0.3697726994564536</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.2952264415000742</v>
+        <v>0.3520184839869134</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5236116063829899</v>
+        <v>0.7855925533204516</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.1504164268877277</v>
+        <v>0.9133196385945671</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.6996386961360272</v>
+        <v>0.8091154947189971</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4939371603138294</v>
+        <v>-0.2949027075837885</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1692185046080157</v>
+        <v>0.7761829020990598</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4275553725172735</v>
+        <v>-0.7515439801792462</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6069681076980155</v>
+        <v>-0.2014032453034942</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.3915113416752612</v>
+        <v>-0.1829419640418292</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.04098921226190883</v>
+        <v>0.7508140198019384</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.8875773347936716</v>
+        <v>0.6113546099229542</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.5214083406119161</v>
+        <v>0.5818882850322145</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2602487587011034</v>
+        <v>0.9069508447783978</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.5740718483029943</v>
+        <v>0.8425774290830852</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8433149725802164</v>
+        <v>0.2056055153103144</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.2891152607351144</v>
+        <v>0.8169010714336659</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8496852783832212</v>
+        <v>-0.828062979221826</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5998331933402088</v>
+        <v>-0.3769014381008843</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.5743818647006346</v>
+        <v>-0.03401190079980137</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.8875773347936716</v>
+        <v>0.5020633218906837</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3585128253372354</v>
+        <v>0.9227458032870788</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.7774263376219234</v>
+        <v>0.9082595624745894</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.2381687113449981</v>
+        <v>-0.6818727042543696</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7700216142234849</v>
+        <v>-0.7454731931760546</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.5487214934370863</v>
+        <v>-0.376901438100884</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.08545612112322158</v>
+        <v>-0.376901438100884</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.5222352319833317</v>
+        <v>0.8052307889628554</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.15652220657857</v>
+        <v>0.7238833038248574</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.5054747000890392</v>
+        <v>-0.3769014381008843</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.6819248104789937</v>
+        <v>0.2300759489269829</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5729951005673262</v>
+        <v>0.3705925808077066</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5343866699521386</v>
+        <v>0.59519473830401</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8471890646724439</v>
+        <v>0.7074099286298868</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8290659990271341</v>
+        <v>-0.7276157177032277</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2086101119171009</v>
+        <v>0.8726605706678465</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.7780709828566037</v>
+        <v>0.7419618471603676</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7516898486642606</v>
+        <v>-0.5210414627190669</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.07065206304186922</v>
+        <v>-0.6866014061867595</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.189547108058521</v>
+        <v>0.285724501212706</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4690534565964546</v>
+        <v>-0.1691559705126329</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.7255438271655396</v>
+        <v>0.1961511483133775</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.6910822664677039</v>
+        <v>0.9467983293859414</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.8399940237742248</v>
+        <v>-0.8221686438736412</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.6867736826651319</v>
+        <v>0.3179313577136593</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.684912278666622</v>
+        <v>-0.3520734545265908</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.07065206304186912</v>
+        <v>0.813311093860719</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.07065206304186912</v>
+        <v>0.7343954118292083</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.6752543774622202</v>
+        <v>-0.1769860033674742</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.6886478900684854</v>
+        <v>-0.147826739325413</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.07065206304186922</v>
+        <v>-0.4026034915687551</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1822621252161808</v>
+        <v>-0.2223262823311107</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3607529990713694</v>
+        <v>-0.7772377284882587</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5331734163945845</v>
+        <v>0.9342017657778949</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.6941775542300098</v>
+        <v>-0.357051233821346</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.5316787592992838</v>
+        <v>0.5243156148481781</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8977330395967958</v>
+        <v>0.399415942088453</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8363261736469025</v>
+        <v>0.8420892350891972</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8491833929668866</v>
+        <v>0.7863843019578833</v>
       </c>
       <c r="HY4" t="n">
-        <v>-0.08487137676171214</v>
+        <v>0.647892606527988</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8077380692368068</v>
+        <v>-0.3298739648458993</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.7089087947512314</v>
+        <v>-0.5830409709886386</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4382577544650435</v>
+        <v>-0.2477820069190405</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6299335841012551</v>
+        <v>-0.2622265297966497</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.3735409823331806</v>
+        <v>-0.8379716399691826</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.05341771536190834</v>
+        <v>0.7704146988745938</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.3275486010305574</v>
+        <v>0.1269610975502211</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.7672155996043358</v>
+        <v>-0.8334718612182919</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7708263367021424</v>
+        <v>-0.6078081959293539</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4038377185789472</v>
+        <v>0.7704146988745938</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.2322398014476164</v>
+        <v>0.7563676656877347</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.2269507773264107</v>
+        <v>-0.5375210200653748</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6906930213342857</v>
+        <v>0.2239956353374889</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1305039999185958</v>
+        <v>-0.2081398329697407</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.06735793228140216</v>
+        <v>-0.3521741119577784</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3881126664774694</v>
+        <v>0.9459378101133016</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1812453813125234</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.713098481580859</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.6875095093718135</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.425051383458544</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5514219686040798</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4430638456742838</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.750935140062528</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.7792162679866504</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.6497690484751999</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.405734288320465</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5439367621678282</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1302982769736986</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3029672951467563</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8044735460390445</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7043417405796663</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.1544389344395548</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.7979219844506589</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5645156365036226</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7043417405796663</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.7499998496878258</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.4851267498369654</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2238665489356796</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.222048557505008</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.3022399909329801</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.7798207888775984</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.5923497342701382</v>
+        <v>0.8252906119316299</v>
       </c>
     </row>
   </sheetData>
